--- a/data/MPA_coordinates.xlsx
+++ b/data/MPA_coordinates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca Ruiz\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca Ruiz\Documents\fish_biodiversity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E36948-FBE8-4B59-BCA7-487BBC6CF4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368E5906-BAAF-45A2-B49C-FA3C42EDA091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8" yWindow="0" windowWidth="11107" windowHeight="14880" xr2:uid="{BBACE741-DACB-40CF-B694-1352AC5DE951}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="535">
   <si>
     <t>Name</t>
   </si>
@@ -1613,6 +1613,33 @@
   </si>
   <si>
     <t>Binlod Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Panagatan Island Marine Turtle Sanctuary</t>
+  </si>
+  <si>
+    <t>11.86888° N</t>
+  </si>
+  <si>
+    <t>121.28611°E</t>
+  </si>
+  <si>
+    <t>Sitio Panagatan, Harigue, Caluya, Antique</t>
+  </si>
+  <si>
+    <t>Coral reef, sandy beach</t>
+  </si>
+  <si>
+    <t>Antique</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>post70s</t>
+  </si>
+  <si>
+    <t>70s</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1663,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1653,11 +1680,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1689,6 +1725,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2003,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20FBEB3-36E1-4443-9E87-5F90BEDC38FA}">
-  <dimension ref="A1:CE114"/>
+  <dimension ref="A1:CE115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2045,6 +2089,9 @@
       <c r="H1" s="4" t="s">
         <v>344</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -2071,6 +2118,9 @@
       <c r="H2" t="s">
         <v>335</v>
       </c>
+      <c r="I2" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -2094,6 +2144,12 @@
       <c r="G3" s="2">
         <v>16</v>
       </c>
+      <c r="H3" t="s">
+        <v>335</v>
+      </c>
+      <c r="I3" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -2117,6 +2173,12 @@
       <c r="G4" s="2">
         <v>6</v>
       </c>
+      <c r="H4" t="s">
+        <v>335</v>
+      </c>
+      <c r="I4" t="s">
+        <v>533</v>
+      </c>
       <c r="J4" t="s">
         <v>507</v>
       </c>
@@ -2143,6 +2205,12 @@
       <c r="G5" s="2">
         <v>8.8699999999999992</v>
       </c>
+      <c r="H5" t="s">
+        <v>335</v>
+      </c>
+      <c r="I5" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -2166,6 +2234,12 @@
       <c r="G6" s="2">
         <v>10</v>
       </c>
+      <c r="H6" t="s">
+        <v>335</v>
+      </c>
+      <c r="I6" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -2189,6 +2263,12 @@
       <c r="G7" s="2">
         <v>6.9</v>
       </c>
+      <c r="H7" t="s">
+        <v>335</v>
+      </c>
+      <c r="I7" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
@@ -2212,6 +2292,12 @@
       <c r="G8" s="8">
         <v>15</v>
       </c>
+      <c r="H8" t="s">
+        <v>335</v>
+      </c>
+      <c r="I8" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -2235,6 +2321,12 @@
       <c r="G9" s="2">
         <v>14.15</v>
       </c>
+      <c r="H9" t="s">
+        <v>335</v>
+      </c>
+      <c r="I9" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -2258,6 +2350,12 @@
       <c r="G10" s="2">
         <v>14.5</v>
       </c>
+      <c r="H10" t="s">
+        <v>335</v>
+      </c>
+      <c r="I10" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -2281,6 +2379,12 @@
       <c r="G11" s="2">
         <v>6</v>
       </c>
+      <c r="H11" t="s">
+        <v>335</v>
+      </c>
+      <c r="I11" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -2304,6 +2408,12 @@
       <c r="G12" s="2">
         <v>27.86</v>
       </c>
+      <c r="H12" t="s">
+        <v>335</v>
+      </c>
+      <c r="I12" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
@@ -2327,6 +2437,12 @@
       <c r="G13" s="2">
         <v>10</v>
       </c>
+      <c r="H13" t="s">
+        <v>335</v>
+      </c>
+      <c r="I13" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
@@ -2350,6 +2466,12 @@
       <c r="G14" s="2">
         <v>6</v>
       </c>
+      <c r="H14" t="s">
+        <v>335</v>
+      </c>
+      <c r="I14" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
@@ -2373,6 +2495,12 @@
       <c r="G15" s="2">
         <v>10</v>
       </c>
+      <c r="H15" t="s">
+        <v>335</v>
+      </c>
+      <c r="I15" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
@@ -2396,8 +2524,14 @@
       <c r="G16" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16" t="s">
+        <v>335</v>
+      </c>
+      <c r="I16" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>382</v>
       </c>
@@ -2419,8 +2553,14 @@
       <c r="G17" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17" t="s">
+        <v>335</v>
+      </c>
+      <c r="I17" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>385</v>
       </c>
@@ -2442,8 +2582,14 @@
       <c r="G18" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18" t="s">
+        <v>335</v>
+      </c>
+      <c r="I18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>392</v>
       </c>
@@ -2465,8 +2611,14 @@
       <c r="G19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H19" t="s">
+        <v>335</v>
+      </c>
+      <c r="I19" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>393</v>
       </c>
@@ -2488,8 +2640,14 @@
       <c r="G20" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H20" t="s">
+        <v>335</v>
+      </c>
+      <c r="I20" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>399</v>
       </c>
@@ -2511,8 +2669,14 @@
       <c r="G21" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H21" t="s">
+        <v>335</v>
+      </c>
+      <c r="I21" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>404</v>
       </c>
@@ -2534,8 +2698,14 @@
       <c r="G22" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H22" t="s">
+        <v>335</v>
+      </c>
+      <c r="I22" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="12" t="s">
         <v>407</v>
       </c>
@@ -2557,8 +2727,14 @@
       <c r="G23" s="2">
         <v>15.14</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H23" t="s">
+        <v>335</v>
+      </c>
+      <c r="I23" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>411</v>
       </c>
@@ -2580,8 +2756,14 @@
       <c r="G24" s="2">
         <v>25.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H24" t="s">
+        <v>335</v>
+      </c>
+      <c r="I24" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>414</v>
       </c>
@@ -2603,8 +2785,14 @@
       <c r="G25" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H25" t="s">
+        <v>335</v>
+      </c>
+      <c r="I25" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>420</v>
       </c>
@@ -2626,8 +2814,14 @@
       <c r="G26" s="2">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H26" t="s">
+        <v>335</v>
+      </c>
+      <c r="I26" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>426</v>
       </c>
@@ -2649,8 +2843,14 @@
       <c r="G27" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H27" t="s">
+        <v>335</v>
+      </c>
+      <c r="I27" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>427</v>
       </c>
@@ -2672,8 +2872,14 @@
       <c r="G28" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H28" t="s">
+        <v>335</v>
+      </c>
+      <c r="I28" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>433</v>
       </c>
@@ -2695,8 +2901,14 @@
       <c r="G29" s="2">
         <v>4.21</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H29" t="s">
+        <v>335</v>
+      </c>
+      <c r="I29" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>440</v>
       </c>
@@ -2718,8 +2930,14 @@
       <c r="G30" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H30" t="s">
+        <v>335</v>
+      </c>
+      <c r="I30" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>442</v>
       </c>
@@ -2741,8 +2959,14 @@
       <c r="G31" s="2">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H31" t="s">
+        <v>335</v>
+      </c>
+      <c r="I31" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>446</v>
       </c>
@@ -2764,8 +2988,14 @@
       <c r="G32" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H32" t="s">
+        <v>335</v>
+      </c>
+      <c r="I32" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>450</v>
       </c>
@@ -2787,8 +3017,14 @@
       <c r="G33" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H33" t="s">
+        <v>335</v>
+      </c>
+      <c r="I33" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>454</v>
       </c>
@@ -2810,8 +3046,14 @@
       <c r="G34" s="2">
         <v>7.42</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H34" t="s">
+        <v>335</v>
+      </c>
+      <c r="I34" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>458</v>
       </c>
@@ -2833,8 +3075,14 @@
       <c r="G35" s="2">
         <v>5.97</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H35" t="s">
+        <v>335</v>
+      </c>
+      <c r="I35" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>463</v>
       </c>
@@ -2856,8 +3104,14 @@
       <c r="G36" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H36" t="s">
+        <v>335</v>
+      </c>
+      <c r="I36" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>466</v>
       </c>
@@ -2879,8 +3133,14 @@
       <c r="G37" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H37" t="s">
+        <v>335</v>
+      </c>
+      <c r="I37" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>471</v>
       </c>
@@ -2902,8 +3162,14 @@
       <c r="G38" s="2">
         <v>7.1289999999999996</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H38" t="s">
+        <v>335</v>
+      </c>
+      <c r="I38" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>479</v>
       </c>
@@ -2925,8 +3191,14 @@
       <c r="G39" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H39" t="s">
+        <v>335</v>
+      </c>
+      <c r="I39" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>478</v>
       </c>
@@ -2948,8 +3220,14 @@
       <c r="G40" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H40" t="s">
+        <v>335</v>
+      </c>
+      <c r="I40" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>484</v>
       </c>
@@ -2971,8 +3249,14 @@
       <c r="G41" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H41" t="s">
+        <v>335</v>
+      </c>
+      <c r="I41" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>491</v>
       </c>
@@ -2994,8 +3278,14 @@
       <c r="G42" s="2">
         <v>2.21</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H42" t="s">
+        <v>335</v>
+      </c>
+      <c r="I42" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>494</v>
       </c>
@@ -3017,8 +3307,14 @@
       <c r="G43" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H43" t="s">
+        <v>335</v>
+      </c>
+      <c r="I43" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>498</v>
       </c>
@@ -3040,8 +3336,14 @@
       <c r="G44" s="2">
         <v>9.1778999999999993</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H44" t="s">
+        <v>335</v>
+      </c>
+      <c r="I44" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>502</v>
       </c>
@@ -3063,8 +3365,14 @@
       <c r="G45" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H45" t="s">
+        <v>335</v>
+      </c>
+      <c r="I45" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>506</v>
       </c>
@@ -3086,8 +3394,14 @@
       <c r="G46" s="2">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H46" t="s">
+        <v>335</v>
+      </c>
+      <c r="I46" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>510</v>
       </c>
@@ -3109,8 +3423,14 @@
       <c r="G47" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H47" t="s">
+        <v>335</v>
+      </c>
+      <c r="I47" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>515</v>
       </c>
@@ -3131,6 +3451,12 @@
       </c>
       <c r="G48" s="2">
         <v>102.4</v>
+      </c>
+      <c r="H48" t="s">
+        <v>335</v>
+      </c>
+      <c r="I48" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="49" spans="1:83" x14ac:dyDescent="0.45">
@@ -3153,6 +3479,12 @@
       <c r="G49" s="2">
         <v>18.196000000000002</v>
       </c>
+      <c r="H49" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="I49" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="50" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A50" s="9" t="s">
@@ -3176,8 +3508,12 @@
       <c r="G50" s="11">
         <v>20</v>
       </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="H50" t="s">
+        <v>336</v>
+      </c>
+      <c r="I50" t="s">
+        <v>533</v>
+      </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -3275,6 +3611,12 @@
       <c r="G51" s="2">
         <v>10</v>
       </c>
+      <c r="H51" t="s">
+        <v>336</v>
+      </c>
+      <c r="I51" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="52" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
@@ -3298,6 +3640,12 @@
       <c r="G52" s="2">
         <v>28</v>
       </c>
+      <c r="H52" t="s">
+        <v>336</v>
+      </c>
+      <c r="I52" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="53" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
@@ -3321,6 +3669,12 @@
       <c r="G53" s="2">
         <v>40</v>
       </c>
+      <c r="H53" t="s">
+        <v>336</v>
+      </c>
+      <c r="I53" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="54" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
@@ -3344,6 +3698,12 @@
       <c r="G54" s="2">
         <v>30</v>
       </c>
+      <c r="H54" t="s">
+        <v>336</v>
+      </c>
+      <c r="I54" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="55" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
@@ -3367,6 +3727,12 @@
       <c r="G55" s="2">
         <v>40</v>
       </c>
+      <c r="H55" t="s">
+        <v>336</v>
+      </c>
+      <c r="I55" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="56" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
@@ -3390,6 +3756,12 @@
       <c r="G56" s="2">
         <v>32</v>
       </c>
+      <c r="H56" t="s">
+        <v>336</v>
+      </c>
+      <c r="I56" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="57" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
@@ -3413,6 +3785,12 @@
       <c r="G57" s="2">
         <v>15.48</v>
       </c>
+      <c r="H57" t="s">
+        <v>336</v>
+      </c>
+      <c r="I57" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="58" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
@@ -3436,8 +3814,11 @@
       <c r="G58" s="2">
         <v>40</v>
       </c>
-      <c r="J58" t="s">
-        <v>336</v>
+      <c r="H58" t="s">
+        <v>336</v>
+      </c>
+      <c r="I58" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="59" spans="1:83" x14ac:dyDescent="0.45">
@@ -3462,6 +3843,12 @@
       <c r="G59" s="2">
         <v>14.89</v>
       </c>
+      <c r="H59" t="s">
+        <v>336</v>
+      </c>
+      <c r="I59" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="60" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
@@ -3485,6 +3872,12 @@
       <c r="G60" s="2">
         <v>25</v>
       </c>
+      <c r="H60" t="s">
+        <v>336</v>
+      </c>
+      <c r="I60" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="61" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
@@ -3508,6 +3901,12 @@
       <c r="G61" s="2">
         <v>18.5</v>
       </c>
+      <c r="H61" t="s">
+        <v>336</v>
+      </c>
+      <c r="I61" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="62" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
@@ -3531,6 +3930,12 @@
       <c r="G62" s="2">
         <v>83</v>
       </c>
+      <c r="H62" t="s">
+        <v>336</v>
+      </c>
+      <c r="I62" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="63" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
@@ -3554,6 +3959,12 @@
       <c r="G63" s="2">
         <v>19.8</v>
       </c>
+      <c r="H63" t="s">
+        <v>336</v>
+      </c>
+      <c r="I63" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="64" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
@@ -3577,8 +3988,14 @@
       <c r="G64" s="2">
         <v>8.99</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H64" t="s">
+        <v>336</v>
+      </c>
+      <c r="I64" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>104</v>
       </c>
@@ -3600,8 +4017,14 @@
       <c r="G65" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H65" t="s">
+        <v>336</v>
+      </c>
+      <c r="I65" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -3623,8 +4046,14 @@
       <c r="G66" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H66" t="s">
+        <v>336</v>
+      </c>
+      <c r="I66" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>525</v>
       </c>
@@ -3646,8 +4075,14 @@
       <c r="G67" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H67" t="s">
+        <v>336</v>
+      </c>
+      <c r="I67" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>115</v>
       </c>
@@ -3669,8 +4104,14 @@
       <c r="G68" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H68" t="s">
+        <v>336</v>
+      </c>
+      <c r="I68" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -3692,8 +4133,14 @@
       <c r="G69" s="2">
         <v>11.98</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H69" t="s">
+        <v>336</v>
+      </c>
+      <c r="I69" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -3715,8 +4162,14 @@
       <c r="G70" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H70" t="s">
+        <v>336</v>
+      </c>
+      <c r="I70" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -3738,8 +4191,14 @@
       <c r="G71" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H71" t="s">
+        <v>336</v>
+      </c>
+      <c r="I71" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>134</v>
       </c>
@@ -3761,8 +4220,14 @@
       <c r="G72" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H72" t="s">
+        <v>336</v>
+      </c>
+      <c r="I72" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -3784,8 +4249,14 @@
       <c r="G73" s="2">
         <v>22.71</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H73" t="s">
+        <v>336</v>
+      </c>
+      <c r="I73" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>145</v>
       </c>
@@ -3807,8 +4278,14 @@
       <c r="G74" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H74" t="s">
+        <v>336</v>
+      </c>
+      <c r="I74" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>150</v>
       </c>
@@ -3830,8 +4307,14 @@
       <c r="G75" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H75" t="s">
+        <v>336</v>
+      </c>
+      <c r="I75" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -3853,8 +4336,14 @@
       <c r="G76" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H76" t="s">
+        <v>336</v>
+      </c>
+      <c r="I76" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -3876,8 +4365,14 @@
       <c r="G77" s="2">
         <v>9.35</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H77" t="s">
+        <v>336</v>
+      </c>
+      <c r="I77" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>164</v>
       </c>
@@ -3899,8 +4394,14 @@
       <c r="G78" s="2">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H78" t="s">
+        <v>336</v>
+      </c>
+      <c r="I78" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>168</v>
       </c>
@@ -3922,8 +4423,14 @@
       <c r="G79" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H79" t="s">
+        <v>336</v>
+      </c>
+      <c r="I79" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>168</v>
       </c>
@@ -3945,8 +4452,14 @@
       <c r="G80" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H80" t="s">
+        <v>336</v>
+      </c>
+      <c r="I80" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>177</v>
       </c>
@@ -3968,8 +4481,14 @@
       <c r="G81" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H81" t="s">
+        <v>336</v>
+      </c>
+      <c r="I81" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>182</v>
       </c>
@@ -3991,8 +4510,14 @@
       <c r="G82" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H82" t="s">
+        <v>336</v>
+      </c>
+      <c r="I82" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>187</v>
       </c>
@@ -4014,8 +4539,14 @@
       <c r="G83" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H83" t="s">
+        <v>336</v>
+      </c>
+      <c r="I83" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>194</v>
       </c>
@@ -4037,8 +4568,14 @@
       <c r="G84" s="2">
         <v>10.99</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H84" t="s">
+        <v>336</v>
+      </c>
+      <c r="I84" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>197</v>
       </c>
@@ -4060,8 +4597,14 @@
       <c r="G85" s="2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H85" t="s">
+        <v>336</v>
+      </c>
+      <c r="I85" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>203</v>
       </c>
@@ -4083,8 +4626,14 @@
       <c r="G86" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H86" t="s">
+        <v>336</v>
+      </c>
+      <c r="I86" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>206</v>
       </c>
@@ -4106,8 +4655,14 @@
       <c r="G87" s="2">
         <v>4.17</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H87" t="s">
+        <v>336</v>
+      </c>
+      <c r="I87" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>210</v>
       </c>
@@ -4129,8 +4684,14 @@
       <c r="G88" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H88" t="s">
+        <v>336</v>
+      </c>
+      <c r="I88" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>216</v>
       </c>
@@ -4152,8 +4713,14 @@
       <c r="G89" s="2">
         <v>1.37</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H89" t="s">
+        <v>336</v>
+      </c>
+      <c r="I89" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>222</v>
       </c>
@@ -4175,8 +4742,14 @@
       <c r="G90" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H90" t="s">
+        <v>336</v>
+      </c>
+      <c r="I90" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>226</v>
       </c>
@@ -4198,8 +4771,14 @@
       <c r="G91" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H91" t="s">
+        <v>336</v>
+      </c>
+      <c r="I91" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>230</v>
       </c>
@@ -4221,8 +4800,14 @@
       <c r="G92" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H92" t="s">
+        <v>336</v>
+      </c>
+      <c r="I92" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>237</v>
       </c>
@@ -4244,8 +4829,14 @@
       <c r="G93" s="2">
         <v>12.01</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H93" t="s">
+        <v>336</v>
+      </c>
+      <c r="I93" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>239</v>
       </c>
@@ -4267,8 +4858,14 @@
       <c r="G94" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H94" t="s">
+        <v>336</v>
+      </c>
+      <c r="I94" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>243</v>
       </c>
@@ -4290,8 +4887,14 @@
       <c r="G95" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H95" t="s">
+        <v>336</v>
+      </c>
+      <c r="I95" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>248</v>
       </c>
@@ -4313,8 +4916,14 @@
       <c r="G96" s="2">
         <v>10.35</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H96" t="s">
+        <v>336</v>
+      </c>
+      <c r="I96" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>255</v>
       </c>
@@ -4336,8 +4945,14 @@
       <c r="G97" s="2">
         <v>10.78</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H97" t="s">
+        <v>336</v>
+      </c>
+      <c r="I97" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>258</v>
       </c>
@@ -4359,8 +4974,14 @@
       <c r="G98" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H98" t="s">
+        <v>336</v>
+      </c>
+      <c r="I98" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>263</v>
       </c>
@@ -4382,8 +5003,14 @@
       <c r="G99" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H99" t="s">
+        <v>336</v>
+      </c>
+      <c r="I99" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>270</v>
       </c>
@@ -4405,8 +5032,14 @@
       <c r="G100" s="2">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H100" t="s">
+        <v>336</v>
+      </c>
+      <c r="I100" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>271</v>
       </c>
@@ -4428,8 +5061,14 @@
       <c r="G101" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H101" t="s">
+        <v>336</v>
+      </c>
+      <c r="I101" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>275</v>
       </c>
@@ -4451,8 +5090,14 @@
       <c r="G102" s="2">
         <v>8.1300000000000008</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H102" t="s">
+        <v>336</v>
+      </c>
+      <c r="I102" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>280</v>
       </c>
@@ -4474,8 +5119,14 @@
       <c r="G103" s="2">
         <v>12.01</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H103" t="s">
+        <v>336</v>
+      </c>
+      <c r="I103" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>285</v>
       </c>
@@ -4497,8 +5148,14 @@
       <c r="G104" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H104" t="s">
+        <v>336</v>
+      </c>
+      <c r="I104" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>289</v>
       </c>
@@ -4520,8 +5177,14 @@
       <c r="G105" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H105" t="s">
+        <v>336</v>
+      </c>
+      <c r="I105" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>295</v>
       </c>
@@ -4543,8 +5206,14 @@
       <c r="G106" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H106" t="s">
+        <v>336</v>
+      </c>
+      <c r="I106" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>298</v>
       </c>
@@ -4566,8 +5235,14 @@
       <c r="G107" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H107" t="s">
+        <v>336</v>
+      </c>
+      <c r="I107" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>302</v>
       </c>
@@ -4589,8 +5264,14 @@
       <c r="G108" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H108" t="s">
+        <v>336</v>
+      </c>
+      <c r="I108" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>306</v>
       </c>
@@ -4612,8 +5293,14 @@
       <c r="G109" s="2">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H109" t="s">
+        <v>336</v>
+      </c>
+      <c r="I109" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>311</v>
       </c>
@@ -4635,8 +5322,14 @@
       <c r="G110" s="2">
         <v>38.6</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H110" t="s">
+        <v>336</v>
+      </c>
+      <c r="I110" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>316</v>
       </c>
@@ -4658,8 +5351,14 @@
       <c r="G111" s="2">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H111" t="s">
+        <v>336</v>
+      </c>
+      <c r="I111" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>320</v>
       </c>
@@ -4681,8 +5380,14 @@
       <c r="G112" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H112" t="s">
+        <v>336</v>
+      </c>
+      <c r="I112" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>324</v>
       </c>
@@ -4704,28 +5409,69 @@
       <c r="G113" s="2">
         <v>39.1</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A114" t="s">
+      <c r="H113" t="s">
+        <v>336</v>
+      </c>
+      <c r="I113" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F114" s="14">
         <v>2006</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G114" s="15">
         <v>18</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A115" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="B115" t="s">
+        <v>527</v>
+      </c>
+      <c r="C115" t="s">
+        <v>528</v>
+      </c>
+      <c r="D115" t="s">
+        <v>529</v>
+      </c>
+      <c r="E115" t="s">
+        <v>530</v>
+      </c>
+      <c r="F115" s="5">
+        <v>1975</v>
+      </c>
+      <c r="G115" s="2">
+        <v>600</v>
+      </c>
+      <c r="H115" t="s">
+        <v>531</v>
+      </c>
+      <c r="I115" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
